--- a/technical_documents/CordChord_frame_dimensions.xlsx
+++ b/technical_documents/CordChord_frame_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/jackeh_uio_no/Documents/MCT4054 - IMS/Project/.assignments/Assignment_7/technical_files/technical_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/jackeh_uio_no/Documents/MCT4054 - IMS/Project/.assignments/Assignment_7/CordChord/technical_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC10484E215D72125BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E45F98E-A7AA-4C14-AE09-9D8D8C517C7D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC10484E215D72125BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70BADD78-8C12-461C-98A9-2D5E49E11B41}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Vertical plank length</t>
   </si>
   <si>
-    <t>684mm</t>
-  </si>
-  <si>
     <t>500 + (2*22) + 40</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>584mm</t>
   </si>
 </sst>
 </file>
@@ -476,25 +476,25 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -566,64 +566,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
